--- a/study-easyexcel/src/main/resources/excel/UserInfo.xlsx
+++ b/study-easyexcel/src/main/resources/excel/UserInfo.xlsx
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/study-easyexcel/src/main/resources/excel/UserInfo.xlsx
+++ b/study-easyexcel/src/main/resources/excel/UserInfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,63 +378,81 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
